--- a/ソフト設計資料/状態遷移設計.xlsx
+++ b/ソフト設計資料/状態遷移設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20475" windowHeight="7620"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20475" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="64">
   <si>
     <t>電源オン</t>
     <rPh sb="0" eb="2">
@@ -251,6 +251,237 @@
       <t>スミ</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態決定待ち</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源オフ</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉開開錠1分経過</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉閉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉開</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉閉後1s経過</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源ボタン押下時、扉開</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源ボタン押下時、扉閉</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード未登録 or ID一致</t>
+    <rPh sb="3" eb="6">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉開・開錠状態</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード登録済</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード登録未</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID未登録状態でタッチ</t>
+    <rPh sb="2" eb="5">
+      <t>ミトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉閉・施錠状態 &amp;&amp; ID一致</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヘイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -524,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,6 +845,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24:AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2717,14 +2972,873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C8:X58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="U34" sqref="T34:U34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.375" customWidth="1"/>
+    <col min="20" max="22" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:14" ht="46.5">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="3:14" ht="26.25">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="26.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="65.25">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="17"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" ht="15">
+      <c r="C19" s="18"/>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="3:22">
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="3:22">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="3:22">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="3:22" ht="92.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="R31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="3:22" ht="26.25">
+      <c r="R32" s="32"/>
+      <c r="S32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="16:24">
+      <c r="P33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="16:24">
+      <c r="P34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="16:24">
+      <c r="P35" s="15"/>
+      <c r="Q35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="16:24">
+      <c r="P36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="16:24">
+      <c r="P37" s="15"/>
+      <c r="Q37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="16:24">
+      <c r="R40" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="16:24">
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="16:24">
+      <c r="R42" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="16:24">
+      <c r="R43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="16:24">
+      <c r="R44" t="s">
+        <v>48</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="16:24">
+      <c r="R45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="16:24">
+      <c r="R46" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="16:24">
+      <c r="R47" t="s">
+        <v>53</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="16:19">
+      <c r="P51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="16:19" ht="65.25">
+      <c r="Q52" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="R52" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="16:19">
+      <c r="P53" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="16:19">
+      <c r="P54" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="16:19">
+      <c r="R57" t="s">
+        <v>60</v>
+      </c>
+      <c r="S57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="16:19">
+      <c r="R58" t="s">
+        <v>61</v>
+      </c>
+      <c r="S58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:F11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
